--- a/PM_R_code/output/Table_S2_formatted.xlsx
+++ b/PM_R_code/output/Table_S2_formatted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jocutler/Dropbox/All_analysis_sharing_PM_21/PM_R_code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646ECAA-AE61-F249-832E-E71190234BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3E6BCB-6A0C-1A43-8DB8-1D380FB94B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20940" yWindow="10660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
             <v>Recipient (Self vs. Other)</v>
           </cell>
           <cell r="B2">
-            <v>24.739961886478302</v>
+            <v>24.739961886485599</v>
           </cell>
           <cell r="C2">
             <v>1</v>
@@ -713,7 +713,7 @@
             <v>Reward</v>
           </cell>
           <cell r="B4">
-            <v>66.796684620061598</v>
+            <v>66.796684620052503</v>
           </cell>
           <cell r="C4">
             <v>4</v>
@@ -727,7 +727,7 @@
             <v>Recipient (Self vs. Other) * Effort</v>
           </cell>
           <cell r="B5">
-            <v>7.8780805163569303</v>
+            <v>7.8780805163587502</v>
           </cell>
           <cell r="C5">
             <v>4</v>
@@ -741,7 +741,7 @@
             <v>Recipient (Self vs. Other) * Reward</v>
           </cell>
           <cell r="B6">
-            <v>12.4870504157025</v>
+            <v>12.4870504157388</v>
           </cell>
           <cell r="C6">
             <v>4</v>
@@ -755,7 +755,7 @@
             <v>Effort * Reward</v>
           </cell>
           <cell r="B7">
-            <v>47.7769693028022</v>
+            <v>47.776969302794903</v>
           </cell>
           <cell r="C7">
             <v>16</v>
@@ -769,7 +769,7 @@
             <v>Recipient (Self vs. Other) * Effort * Reward</v>
           </cell>
           <cell r="B8">
-            <v>39.021983114031201</v>
+            <v>39.021983114014802</v>
           </cell>
           <cell r="C8">
             <v>16</v>
@@ -1084,7 +1084,7 @@
   <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C3" s="3">
         <f>[1]Table_S2!$B$2</f>
-        <v>24.739961886478302</v>
+        <v>24.739961886485599</v>
       </c>
       <c r="D3" s="13">
         <f>[1]Table_S2!$C$2</f>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C5" s="3">
         <f>[1]Table_S2!$B$4</f>
-        <v>66.796684620061598</v>
+        <v>66.796684620052503</v>
       </c>
       <c r="D5" s="13">
         <f>[1]Table_S2!$C$4</f>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C6" s="3">
         <f>[1]Table_S2!$B$5</f>
-        <v>7.8780805163569303</v>
+        <v>7.8780805163587502</v>
       </c>
       <c r="D6" s="13">
         <f>[1]Table_S2!$C$5</f>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C7" s="3">
         <f>[1]Table_S2!$B$6</f>
-        <v>12.4870504157025</v>
+        <v>12.4870504157388</v>
       </c>
       <c r="D7" s="13">
         <f>[1]Table_S2!$C$6</f>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C8" s="3">
         <f>[1]Table_S2!$B$7</f>
-        <v>47.7769693028022</v>
+        <v>47.776969302794903</v>
       </c>
       <c r="D8" s="13">
         <f>[1]Table_S2!$C$7</f>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C9" s="6">
         <f>[1]Table_S2!$B$8</f>
-        <v>39.021983114031201</v>
+        <v>39.021983114014802</v>
       </c>
       <c r="D9" s="14">
         <f>[1]Table_S2!$C$8</f>
